--- a/biology/Zoologie/Daurade_(poisson)/Daurade_(poisson).xlsx
+++ b/biology/Zoologie/Daurade_(poisson)/Daurade_(poisson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme daurade ou dorade désigne plusieurs espèces de poissons de bonne qualité gustative. En France, il fait référence, en premier lieu, à la daurade royale (Sparus aurata). Dans les zones francophones tropicales (Maurice, La Réunion, Comores, Madagascar, les Seychelles, les Antilles), ce terme fait principalement référence à la dorade coryphène, sauf en Guyane, où il désigne Zungaro zungaro.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme « dorade » est un emprunt à l'espagnol par l'intermédiaire d'un texte italien attesté de 1490. Ce terme pourrait avoir pour origine le terme dorar qui signifie dorer[1]. Le terme désignait donc la Sparus aurata remarquable par les aspects dorés visibles au-dessus de ses yeux et sur ses joues.
-Le terme daurade viendrait lui du mot occitan daurada signifiant également « dorée »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme « dorade » est un emprunt à l'espagnol par l'intermédiaire d'un texte italien attesté de 1490. Ce terme pourrait avoir pour origine le terme dorar qui signifie dorer. Le terme désignait donc la Sparus aurata remarquable par les aspects dorés visibles au-dessus de ses yeux et sur ses joues.
+Le terme daurade viendrait lui du mot occitan daurada signifiant également « dorée ».
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste des noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les espèces suivantes utilisent le terme « dorade » dans leur nom vernaculaire :
 Dorade australe - Spondyliosoma emarginatum
@@ -590,12 +606,14 @@
           <t>Usages du terme « dorade »</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs autres espèces au sein de la famille des Sparidae utilisent ce terme générique dans leur nom vernaculaire, dont la dorade grise (Spondyliosoma cantharus), la dorade japonaise (Pagrus major), la dorade marbrée (Lithognathus mormyrus). Le nom vernaculaire de dorade rose est lui-même ambigu et désigne deux espèces. 
-Les deux espèces du genre Coryphaena sont appelées dorades tropicales[2]. Le perroquet dorade est un poisson de la famille des poissons perroquets.
+Les deux espèces du genre Coryphaena sont appelées dorades tropicales. Le perroquet dorade est un poisson de la famille des poissons perroquets.
 Un ancien usage nomme « dorade de Chine » le cyprin doré.
-En France, le terme « daurade », au titre de l'appellation commerciale[3], est strictement réservé à l'espèce Sparus aurata ou « daurade royale ».
+En France, le terme « daurade », au titre de l'appellation commerciale, est strictement réservé à l'espèce Sparus aurata ou « daurade royale ».
 Le terme « dorade » peut servir à désigner également toutes les espèces de Sparidae.
 </t>
         </is>
@@ -625,9 +643,11 @@
           <t>Exploitation commerciale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, la maille légale de capture des daurades royales (Sparus aurata), daurades roses (Pagellus bogaraveo) et daurades grises (Spondyliosoma cantharus) est de 23 cm en Méditerranée et en Atlantique[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la maille légale de capture des daurades royales (Sparus aurata), daurades roses (Pagellus bogaraveo) et daurades grises (Spondyliosoma cantharus) est de 23 cm en Méditerranée et en Atlantique.
 </t>
         </is>
       </c>
